--- a/static/KOPIS_data1.xlsx
+++ b/static/KOPIS_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF22650-8454-1040-80B3-A88A8BA32FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDC427E-B601-594C-9DAE-125284B714AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
+    <workbookView xWindow="900" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="290">
   <si>
     <t>SE000201</t>
   </si>
@@ -68,9 +68,6 @@
     <t>16.77X7.9X16</t>
   </si>
   <si>
-    <t>2022-05-18 09:59</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>1988</t>
   </si>
   <si>
-    <t>2022-07-09</t>
-  </si>
-  <si>
     <t>2022-08-21</t>
   </si>
   <si>
@@ -572,9 +566,6 @@
     <t>392</t>
   </si>
   <si>
-    <t>T1998059700</t>
-  </si>
-  <si>
     <t>2022-08-01 20:01</t>
   </si>
   <si>
@@ -614,9 +605,6 @@
     <t>2001</t>
   </si>
   <si>
-    <t>T2014569091</t>
-  </si>
-  <si>
     <t>2022-08-23 19:23</t>
   </si>
   <si>
@@ -714,9 +702,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>T0897847594</t>
   </si>
   <si>
     <t>2022-08-21 10:21</t>
@@ -1198,6 +1183,22 @@
   <si>
     <t>만 8세 이상</t>
   </si>
+  <si>
+    <t>T0897847594</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1998059700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2014569091</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>202-07-09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1206,7 +1207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1277,6 +1278,21 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1308,7 +1324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,6 +1350,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1653,13 +1676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E68AD-46E5-DD4E-B482-C3F3BFF2B2E7}">
   <dimension ref="A1:BP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BH18" sqref="BH18"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="25" max="25" width="42.7109375" customWidth="1"/>
     <col min="27" max="27" width="23.28515625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23.42578125" customWidth="1"/>
     <col min="41" max="41" width="18.7109375" customWidth="1"/>
     <col min="42" max="42" width="15.5703125" customWidth="1"/>
@@ -1667,208 +1692,208 @@
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AQ1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AP1" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -1924,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S2" s="1">
         <v>1084</v>
@@ -1945,22 +1970,22 @@
         <v>9</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Z2" s="1">
         <v>1</v>
       </c>
       <c r="AA2" s="3">
-        <v>45158.6875</v>
+        <v>45189.6875</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>44699.415972222225</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="AE2" s="1">
         <v>1</v>
@@ -1969,104 +1994,104 @@
         <v>42000</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1">
         <v>42000</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BG2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="BP2" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -2077,17 +2102,17 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2122,13 +2147,13 @@
         <v>6</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S3" s="1">
         <v>254</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>6</v>
@@ -2141,22 +2166,22 @@
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
       <c r="AA3" s="3">
-        <v>45158.458333333336</v>
+        <v>45189.458333333336</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" s="1">
         <v>1</v>
@@ -2165,104 +2190,104 @@
         <v>15000</v>
       </c>
       <c r="AG3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
       </c>
       <c r="AN3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1">
         <v>15000</v>
       </c>
       <c r="AR3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AW3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BG3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BM3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="BP3" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -2273,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -2318,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="S4" s="1">
         <v>5000</v>
@@ -2337,22 +2362,22 @@
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Z4" s="1">
         <v>1</v>
       </c>
       <c r="AA4" s="3">
-        <v>45144.625</v>
+        <v>45175.625</v>
       </c>
       <c r="AB4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="AE4" s="1">
         <v>1</v>
@@ -2361,121 +2386,121 @@
         <v>143000</v>
       </c>
       <c r="AG4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AI4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
       </c>
       <c r="AN4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1">
         <v>143000</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK4" s="1" t="s">
+      <c r="BM4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BM4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="BP4" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:68">
       <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2510,13 +2535,13 @@
         <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="S5" s="1">
         <v>2283</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>7</v>
@@ -2529,22 +2554,22 @@
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Z5" s="1">
         <v>1</v>
       </c>
       <c r="AA5" s="3">
-        <v>45145.583333333336</v>
+        <v>45176.583333333336</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE5" s="1">
         <v>1</v>
@@ -2553,127 +2578,127 @@
         <v>100000</v>
       </c>
       <c r="AG5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AI5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AM5" s="1">
         <v>0</v>
       </c>
       <c r="AN5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AO5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AP5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ5" s="1">
         <v>100000</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AW5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK5" s="1" t="s">
+      <c r="BM5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="1" t="s">
+      <c r="BN5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BM5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="BP5" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:68">
       <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2733,7 @@
         <v>7</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="S6" s="1">
         <v>200</v>
@@ -2727,22 +2752,22 @@
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
       </c>
       <c r="AA6" s="3">
-        <v>45147.6875</v>
+        <v>45178.6875</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE6" s="1">
         <v>1</v>
@@ -2751,104 +2776,104 @@
         <v>100</v>
       </c>
       <c r="AG6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="AM6" s="1">
         <v>0</v>
       </c>
       <c r="AN6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AO6" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AP6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ6" s="1">
         <v>100</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BG6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BK6" s="1" t="s">
+      <c r="BM6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="BN6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BP6" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2859,16 +2884,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -2904,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="S7" s="1">
         <v>2029</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>6</v>
@@ -2922,25 +2947,25 @@
         <v>7</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Z7" s="1">
         <v>1</v>
       </c>
       <c r="AA7" s="3">
-        <v>45159.75</v>
+        <v>45190.75</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE7" s="1">
         <v>1</v>
@@ -2949,70 +2974,70 @@
         <v>121000</v>
       </c>
       <c r="AG7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AI7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AJ7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="AM7" s="1">
         <v>0</v>
       </c>
       <c r="AN7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1">
         <v>121000</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AW7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="AY7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
       <c r="BB7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>6</v>
@@ -3027,22 +3052,22 @@
         <v>6</v>
       </c>
       <c r="BK7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="BP7" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -3053,16 +3078,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
@@ -3098,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="S8" s="1">
         <v>750</v>
@@ -3116,25 +3141,25 @@
         <v>7</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Z8" s="1">
         <v>1</v>
       </c>
       <c r="AA8" s="3">
-        <v>45161.8125</v>
+        <v>45192.8125</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE8" s="1">
         <v>1</v>
@@ -3143,70 +3168,70 @@
         <v>0</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
       </c>
       <c r="AN8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1">
         <v>0</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
       <c r="BB8" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>6</v>
@@ -3221,22 +3246,22 @@
         <v>6</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BN8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BO8" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -3247,16 +3272,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -3292,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="S9" s="1">
         <v>1026</v>
@@ -3310,25 +3335,25 @@
         <v>7</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Z9" s="1">
         <v>1</v>
       </c>
       <c r="AA9" s="3">
-        <v>45162.8125</v>
+        <v>45193.8125</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE9" s="1">
         <v>1</v>
@@ -3337,106 +3362,106 @@
         <v>88000</v>
       </c>
       <c r="AG9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AI9" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AJ9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="AL9" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AM9" s="1">
         <v>0</v>
       </c>
       <c r="AN9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1">
         <v>88000</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AU9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB9" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BF9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BP9" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -3447,17 +3472,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3492,13 +3517,13 @@
         <v>6</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="S10" s="1">
         <v>600</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>7</v>
@@ -3511,22 +3536,22 @@
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Z10" s="1">
         <v>1</v>
       </c>
       <c r="AA10" s="3">
-        <v>45159.583333333336</v>
+        <v>45190.583333333336</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE10" s="1">
         <v>1</v>
@@ -3535,74 +3560,74 @@
         <v>0</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AM10" s="1">
         <v>0</v>
       </c>
       <c r="AN10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1">
         <v>0</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>6</v>
@@ -3617,42 +3642,42 @@
         <v>6</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="BN10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="BP10" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:68">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E11">
         <v>2002</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -3667,28 +3692,28 @@
         <v>7</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="S11" s="1">
         <v>10000</v>
@@ -3697,31 +3722,31 @@
         <v>1</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="Z11" s="1">
         <v>1</v>
       </c>
       <c r="AA11" s="3">
-        <v>45148.625</v>
+        <v>45179.625</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" s="1">
         <v>1</v>
@@ -3733,19 +3758,19 @@
         <v>3</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AJ11" s="1">
         <v>1</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -3754,7 +3779,7 @@
         <v>99</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AQ11" s="1">
         <v>150000</v>
@@ -3766,37 +3791,37 @@
         <v>2000</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>6</v>

--- a/static/KOPIS_data1.xlsx
+++ b/static/KOPIS_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDC427E-B601-594C-9DAE-125284B714AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711EC4D4-ABB3-334A-BFC6-779043BB166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
+    <workbookView xWindow="7700" yWindow="960" windowWidth="21100" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="391">
   <si>
     <t>SE000201</t>
   </si>
@@ -1198,6 +1198,309 @@
   <si>
     <t>202-07-09</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0897847620</t>
+  </si>
+  <si>
+    <t>T0897847621</t>
+  </si>
+  <si>
+    <t>T0897847622</t>
+  </si>
+  <si>
+    <t>T0897847623</t>
+  </si>
+  <si>
+    <t>T0897847624</t>
+  </si>
+  <si>
+    <t>T0897847625</t>
+  </si>
+  <si>
+    <t>T0897847626</t>
+  </si>
+  <si>
+    <t>T0897847627</t>
+  </si>
+  <si>
+    <t>T0897847628</t>
+  </si>
+  <si>
+    <t>T0897847629</t>
+  </si>
+  <si>
+    <t>T0897847630</t>
+  </si>
+  <si>
+    <t>T0897847631</t>
+  </si>
+  <si>
+    <t>T0897847632</t>
+  </si>
+  <si>
+    <t>T0897847633</t>
+  </si>
+  <si>
+    <t>T0897847634</t>
+  </si>
+  <si>
+    <t>T0897847635</t>
+  </si>
+  <si>
+    <t>T0897847636</t>
+  </si>
+  <si>
+    <t>T0897847637</t>
+  </si>
+  <si>
+    <t>T0897847638</t>
+  </si>
+  <si>
+    <t>T0897847639</t>
+  </si>
+  <si>
+    <t>T0897847640</t>
+  </si>
+  <si>
+    <t>T0897847641</t>
+  </si>
+  <si>
+    <t>T0897847642</t>
+  </si>
+  <si>
+    <t>T0897847643</t>
+  </si>
+  <si>
+    <t>T0897847644</t>
+  </si>
+  <si>
+    <t>T0897847645</t>
+  </si>
+  <si>
+    <t>T0897847646</t>
+  </si>
+  <si>
+    <t>T0897847647</t>
+  </si>
+  <si>
+    <t>T0897847648</t>
+  </si>
+  <si>
+    <t>T0897847649</t>
+  </si>
+  <si>
+    <t>T0897847650</t>
+  </si>
+  <si>
+    <t>T0897847651</t>
+  </si>
+  <si>
+    <t>T0897847652</t>
+  </si>
+  <si>
+    <t>T0897847653</t>
+  </si>
+  <si>
+    <t>T0897847654</t>
+  </si>
+  <si>
+    <t>T0897847655</t>
+  </si>
+  <si>
+    <t>T0897847656</t>
+  </si>
+  <si>
+    <t>T0897847657</t>
+  </si>
+  <si>
+    <t>T0897847658</t>
+  </si>
+  <si>
+    <t>T0897847659</t>
+  </si>
+  <si>
+    <t>T0897847660</t>
+  </si>
+  <si>
+    <t>T0897847661</t>
+  </si>
+  <si>
+    <t>T0897847662</t>
+  </si>
+  <si>
+    <t>T0897847663</t>
+  </si>
+  <si>
+    <t>T0897847664</t>
+  </si>
+  <si>
+    <t>T0897847665</t>
+  </si>
+  <si>
+    <t>T0897847666</t>
+  </si>
+  <si>
+    <t>T0897847667</t>
+  </si>
+  <si>
+    <t>T0897847668</t>
+  </si>
+  <si>
+    <t>T0897847669</t>
+  </si>
+  <si>
+    <t>T0897847670</t>
+  </si>
+  <si>
+    <t>T0897847671</t>
+  </si>
+  <si>
+    <t>T0897847672</t>
+  </si>
+  <si>
+    <t>T0897847673</t>
+  </si>
+  <si>
+    <t>T0897847674</t>
+  </si>
+  <si>
+    <t>T0897847675</t>
+  </si>
+  <si>
+    <t>T0897847676</t>
+  </si>
+  <si>
+    <t>T0897847677</t>
+  </si>
+  <si>
+    <t>T0897847678</t>
+  </si>
+  <si>
+    <t>T0897847679</t>
+  </si>
+  <si>
+    <t>T0897847680</t>
+  </si>
+  <si>
+    <t>T0897847681</t>
+  </si>
+  <si>
+    <t>T0897847682</t>
+  </si>
+  <si>
+    <t>T0897847683</t>
+  </si>
+  <si>
+    <t>T0897847684</t>
+  </si>
+  <si>
+    <t>T0897847685</t>
+  </si>
+  <si>
+    <t>T0897847686</t>
+  </si>
+  <si>
+    <t>T0897847687</t>
+  </si>
+  <si>
+    <t>T0897847688</t>
+  </si>
+  <si>
+    <t>T0897847689</t>
+  </si>
+  <si>
+    <t>T0897847690</t>
+  </si>
+  <si>
+    <t>T0897847691</t>
+  </si>
+  <si>
+    <t>T0897847692</t>
+  </si>
+  <si>
+    <t>T0897847693</t>
+  </si>
+  <si>
+    <t>T0897847694</t>
+  </si>
+  <si>
+    <t>T0897847695</t>
+  </si>
+  <si>
+    <t>T0897847696</t>
+  </si>
+  <si>
+    <t>T0897847697</t>
+  </si>
+  <si>
+    <t>T0897847698</t>
+  </si>
+  <si>
+    <t>T0897847699</t>
+  </si>
+  <si>
+    <t>T0897847700</t>
+  </si>
+  <si>
+    <t>T0897847701</t>
+  </si>
+  <si>
+    <t>T0897847702</t>
+  </si>
+  <si>
+    <t>T0897847703</t>
+  </si>
+  <si>
+    <t>T0897847704</t>
+  </si>
+  <si>
+    <t>T0897847705</t>
+  </si>
+  <si>
+    <t>T0897847706</t>
+  </si>
+  <si>
+    <t>T0897847707</t>
+  </si>
+  <si>
+    <t>T0897847708</t>
+  </si>
+  <si>
+    <t>T0897847709</t>
+  </si>
+  <si>
+    <t>T0897847710</t>
+  </si>
+  <si>
+    <t>T0897847711</t>
+  </si>
+  <si>
+    <t>T0897847712</t>
+  </si>
+  <si>
+    <t>T0897847713</t>
+  </si>
+  <si>
+    <t>T0897847714</t>
+  </si>
+  <si>
+    <t>T0897847715</t>
+  </si>
+  <si>
+    <t>T0897847716</t>
+  </si>
+  <si>
+    <t>T0897847717</t>
+  </si>
+  <si>
+    <t>T0897847718</t>
+  </si>
+  <si>
+    <t>T0897847719</t>
+  </si>
+  <si>
+    <t>T0897847720</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E68AD-46E5-DD4E-B482-C3F3BFF2B2E7}">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AU14" sqref="AU14"/>
+    <sheetView tabSelected="1" topLeftCell="Y34" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3836,8 +4139,2079 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="23:23">
+    <row r="12" spans="1:68">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="W17" s="6"/>
+      <c r="Y17" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y46" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32">
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32">
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y52" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y53" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y54" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y56" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32">
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y59" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32">
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y60" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32">
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y61" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y62" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32">
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y63" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA63" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32">
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32">
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y65" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y66" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32">
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y68" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32">
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y69" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y70" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y71" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32">
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y72" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y73" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA73" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y74" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y75" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA75" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y76" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y77" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y78" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y79" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA79" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y80" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y81" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA81" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y82" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32">
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y85" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32">
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y86" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32">
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y87" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32">
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y88" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32">
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32">
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y90" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32">
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y91" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32">
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y93" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32">
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y95" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32">
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y96" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32">
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y97" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32">
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y98" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32">
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y99" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32">
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y100" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF100" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32">
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y101" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32">
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y102" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32">
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y103" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32">
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y104" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA104" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32">
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y105" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF105" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32">
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y106" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF106" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32">
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y107" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32">
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y108" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB108" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF108" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32">
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y109" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32">
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y110" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF110" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32">
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y111" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA111" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF111" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32">
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y112" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF112" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32">
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:32">
+      <c r="AF114" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="115" spans="2:32">
+      <c r="AF115" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:32">
+      <c r="AF116" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:32">
+      <c r="AF117" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:32">
+      <c r="AF118" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="119" spans="2:32">
+      <c r="AF119" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32">
+      <c r="AF120" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:32">
+      <c r="AF121" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:32">
+      <c r="AF122" s="1">
+        <v>120000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/KOPIS_data1.xlsx
+++ b/static/KOPIS_data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711EC4D4-ABB3-334A-BFC6-779043BB166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A90411-7072-0A44-9B13-6D5008B334FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="960" windowWidth="21100" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="290">
   <si>
     <t>SE000201</t>
   </si>
@@ -1198,309 +1198,6 @@
   <si>
     <t>202-07-09</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0897847620</t>
-  </si>
-  <si>
-    <t>T0897847621</t>
-  </si>
-  <si>
-    <t>T0897847622</t>
-  </si>
-  <si>
-    <t>T0897847623</t>
-  </si>
-  <si>
-    <t>T0897847624</t>
-  </si>
-  <si>
-    <t>T0897847625</t>
-  </si>
-  <si>
-    <t>T0897847626</t>
-  </si>
-  <si>
-    <t>T0897847627</t>
-  </si>
-  <si>
-    <t>T0897847628</t>
-  </si>
-  <si>
-    <t>T0897847629</t>
-  </si>
-  <si>
-    <t>T0897847630</t>
-  </si>
-  <si>
-    <t>T0897847631</t>
-  </si>
-  <si>
-    <t>T0897847632</t>
-  </si>
-  <si>
-    <t>T0897847633</t>
-  </si>
-  <si>
-    <t>T0897847634</t>
-  </si>
-  <si>
-    <t>T0897847635</t>
-  </si>
-  <si>
-    <t>T0897847636</t>
-  </si>
-  <si>
-    <t>T0897847637</t>
-  </si>
-  <si>
-    <t>T0897847638</t>
-  </si>
-  <si>
-    <t>T0897847639</t>
-  </si>
-  <si>
-    <t>T0897847640</t>
-  </si>
-  <si>
-    <t>T0897847641</t>
-  </si>
-  <si>
-    <t>T0897847642</t>
-  </si>
-  <si>
-    <t>T0897847643</t>
-  </si>
-  <si>
-    <t>T0897847644</t>
-  </si>
-  <si>
-    <t>T0897847645</t>
-  </si>
-  <si>
-    <t>T0897847646</t>
-  </si>
-  <si>
-    <t>T0897847647</t>
-  </si>
-  <si>
-    <t>T0897847648</t>
-  </si>
-  <si>
-    <t>T0897847649</t>
-  </si>
-  <si>
-    <t>T0897847650</t>
-  </si>
-  <si>
-    <t>T0897847651</t>
-  </si>
-  <si>
-    <t>T0897847652</t>
-  </si>
-  <si>
-    <t>T0897847653</t>
-  </si>
-  <si>
-    <t>T0897847654</t>
-  </si>
-  <si>
-    <t>T0897847655</t>
-  </si>
-  <si>
-    <t>T0897847656</t>
-  </si>
-  <si>
-    <t>T0897847657</t>
-  </si>
-  <si>
-    <t>T0897847658</t>
-  </si>
-  <si>
-    <t>T0897847659</t>
-  </si>
-  <si>
-    <t>T0897847660</t>
-  </si>
-  <si>
-    <t>T0897847661</t>
-  </si>
-  <si>
-    <t>T0897847662</t>
-  </si>
-  <si>
-    <t>T0897847663</t>
-  </si>
-  <si>
-    <t>T0897847664</t>
-  </si>
-  <si>
-    <t>T0897847665</t>
-  </si>
-  <si>
-    <t>T0897847666</t>
-  </si>
-  <si>
-    <t>T0897847667</t>
-  </si>
-  <si>
-    <t>T0897847668</t>
-  </si>
-  <si>
-    <t>T0897847669</t>
-  </si>
-  <si>
-    <t>T0897847670</t>
-  </si>
-  <si>
-    <t>T0897847671</t>
-  </si>
-  <si>
-    <t>T0897847672</t>
-  </si>
-  <si>
-    <t>T0897847673</t>
-  </si>
-  <si>
-    <t>T0897847674</t>
-  </si>
-  <si>
-    <t>T0897847675</t>
-  </si>
-  <si>
-    <t>T0897847676</t>
-  </si>
-  <si>
-    <t>T0897847677</t>
-  </si>
-  <si>
-    <t>T0897847678</t>
-  </si>
-  <si>
-    <t>T0897847679</t>
-  </si>
-  <si>
-    <t>T0897847680</t>
-  </si>
-  <si>
-    <t>T0897847681</t>
-  </si>
-  <si>
-    <t>T0897847682</t>
-  </si>
-  <si>
-    <t>T0897847683</t>
-  </si>
-  <si>
-    <t>T0897847684</t>
-  </si>
-  <si>
-    <t>T0897847685</t>
-  </si>
-  <si>
-    <t>T0897847686</t>
-  </si>
-  <si>
-    <t>T0897847687</t>
-  </si>
-  <si>
-    <t>T0897847688</t>
-  </si>
-  <si>
-    <t>T0897847689</t>
-  </si>
-  <si>
-    <t>T0897847690</t>
-  </si>
-  <si>
-    <t>T0897847691</t>
-  </si>
-  <si>
-    <t>T0897847692</t>
-  </si>
-  <si>
-    <t>T0897847693</t>
-  </si>
-  <si>
-    <t>T0897847694</t>
-  </si>
-  <si>
-    <t>T0897847695</t>
-  </si>
-  <si>
-    <t>T0897847696</t>
-  </si>
-  <si>
-    <t>T0897847697</t>
-  </si>
-  <si>
-    <t>T0897847698</t>
-  </si>
-  <si>
-    <t>T0897847699</t>
-  </si>
-  <si>
-    <t>T0897847700</t>
-  </si>
-  <si>
-    <t>T0897847701</t>
-  </si>
-  <si>
-    <t>T0897847702</t>
-  </si>
-  <si>
-    <t>T0897847703</t>
-  </si>
-  <si>
-    <t>T0897847704</t>
-  </si>
-  <si>
-    <t>T0897847705</t>
-  </si>
-  <si>
-    <t>T0897847706</t>
-  </si>
-  <si>
-    <t>T0897847707</t>
-  </si>
-  <si>
-    <t>T0897847708</t>
-  </si>
-  <si>
-    <t>T0897847709</t>
-  </si>
-  <si>
-    <t>T0897847710</t>
-  </si>
-  <si>
-    <t>T0897847711</t>
-  </si>
-  <si>
-    <t>T0897847712</t>
-  </si>
-  <si>
-    <t>T0897847713</t>
-  </si>
-  <si>
-    <t>T0897847714</t>
-  </si>
-  <si>
-    <t>T0897847715</t>
-  </si>
-  <si>
-    <t>T0897847716</t>
-  </si>
-  <si>
-    <t>T0897847717</t>
-  </si>
-  <si>
-    <t>T0897847718</t>
-  </si>
-  <si>
-    <t>T0897847719</t>
-  </si>
-  <si>
-    <t>T0897847720</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E68AD-46E5-DD4E-B482-C3F3BFF2B2E7}">
   <dimension ref="A1:BP122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y34" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4140,2078 +3837,778 @@
       </c>
     </row>
     <row r="12" spans="1:68">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="Y12" s="11"/>
+      <c r="AB12" s="1"/>
+      <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:68">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="Y13" s="11"/>
+      <c r="AB13" s="1"/>
+      <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:68">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="Y14" s="11"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="1"/>
+      <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:68">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="Y15" s="11"/>
+      <c r="AB15" s="1"/>
+      <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:68">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="Y16" s="11"/>
+      <c r="AB16" s="1"/>
+      <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>278</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="W17" s="6"/>
-      <c r="Y17" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>120000</v>
-      </c>
+      <c r="Y17" s="11"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="1"/>
+      <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y18" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AF18" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="Y18" s="11"/>
+      <c r="AB18" s="1"/>
+      <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="2:32">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA19" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AF19" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="Y19" s="11"/>
+      <c r="AB19" s="1"/>
+      <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="2:32">
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="Y20" s="11"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="1"/>
+      <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="2:32">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="Y21" s="11"/>
+      <c r="AB21" s="1"/>
+      <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="2:32">
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y22" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="Y22" s="11"/>
+      <c r="AB22" s="1"/>
+      <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="2:32">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="Y23" s="11"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="1"/>
+      <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="2:32">
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="Y24" s="11"/>
+      <c r="AB24" s="1"/>
+      <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="2:32">
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="Y25" s="11"/>
+      <c r="AB25" s="1"/>
+      <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="2:32">
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="Y26" s="11"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="1"/>
+      <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="2:32">
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="Y27" s="11"/>
+      <c r="AB27" s="1"/>
+      <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="2:32">
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA28" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="Y28" s="11"/>
+      <c r="AB28" s="1"/>
+      <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="2:32">
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y29" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="Y29" s="11"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="1"/>
+      <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="2:32">
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA30" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="Y30" s="11"/>
+      <c r="AB30" s="1"/>
+      <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="2:32">
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="Y31" s="11"/>
+      <c r="AB31" s="1"/>
+      <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="Y32" s="11"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="1"/>
+      <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y33" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA33" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="Y33" s="11"/>
+      <c r="AB33" s="1"/>
+      <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y34" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA34" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="Y34" s="11"/>
+      <c r="AB34" s="1"/>
+      <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y35" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="Y35" s="11"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="1"/>
+      <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y36" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA36" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="Y36" s="11"/>
+      <c r="AB36" s="1"/>
+      <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y37" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="Y37" s="11"/>
+      <c r="AB37" s="1"/>
+      <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y38" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="Y38" s="11"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="1"/>
+      <c r="AF38" s="1"/>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y39" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA39" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="Y39" s="11"/>
+      <c r="AB39" s="1"/>
+      <c r="AF39" s="1"/>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y40" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="Y40" s="11"/>
+      <c r="AB40" s="1"/>
+      <c r="AF40" s="1"/>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="Y41" s="11"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="1"/>
+      <c r="AF41" s="1"/>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y42" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA42" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="Y42" s="11"/>
+      <c r="AB42" s="1"/>
+      <c r="AF42" s="1"/>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA43" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="Y43" s="11"/>
+      <c r="AB43" s="1"/>
+      <c r="AF43" s="1"/>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y44" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>100000</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="Y44" s="11"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="1"/>
+      <c r="AF44" s="1"/>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA45" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="Y45" s="11"/>
+      <c r="AB45" s="1"/>
+      <c r="AF45" s="1"/>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y46" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA46" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="Y46" s="11"/>
+      <c r="AB46" s="1"/>
+      <c r="AF46" s="1"/>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="Y47" s="11"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="1"/>
+      <c r="AF47" s="1"/>
     </row>
     <row r="48" spans="2:32">
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y48" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA48" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="Y48" s="11"/>
+      <c r="AB48" s="1"/>
+      <c r="AF48" s="1"/>
     </row>
     <row r="49" spans="2:32">
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA49" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="Y49" s="11"/>
+      <c r="AB49" s="1"/>
+      <c r="AF49" s="1"/>
     </row>
     <row r="50" spans="2:32">
-      <c r="B50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y50" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA50" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="Y50" s="11"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="1"/>
+      <c r="AF50" s="1"/>
     </row>
     <row r="51" spans="2:32">
-      <c r="B51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y51" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA51" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="Y51" s="11"/>
+      <c r="AB51" s="1"/>
+      <c r="AF51" s="1"/>
     </row>
     <row r="52" spans="2:32">
-      <c r="B52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y52" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA52" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="Y52" s="11"/>
+      <c r="AB52" s="1"/>
+      <c r="AF52" s="1"/>
     </row>
     <row r="53" spans="2:32">
-      <c r="B53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF53" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="Y53" s="11"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="1"/>
+      <c r="AF53" s="1"/>
     </row>
     <row r="54" spans="2:32">
-      <c r="B54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y54" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA54" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AF54" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="Y54" s="11"/>
+      <c r="AB54" s="1"/>
+      <c r="AF54" s="1"/>
     </row>
     <row r="55" spans="2:32">
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y55" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA55" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB55" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF55" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="Y55" s="11"/>
+      <c r="AB55" s="1"/>
+      <c r="AF55" s="1"/>
     </row>
     <row r="56" spans="2:32">
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y56" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="Y56" s="11"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="1"/>
+      <c r="AF56" s="1"/>
     </row>
     <row r="57" spans="2:32">
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y57" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA57" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="Y57" s="11"/>
+      <c r="AB57" s="1"/>
+      <c r="AF57" s="1"/>
     </row>
     <row r="58" spans="2:32">
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y58" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA58" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="Y58" s="11"/>
+      <c r="AB58" s="1"/>
+      <c r="AF58" s="1"/>
     </row>
     <row r="59" spans="2:32">
-      <c r="B59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y59" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF59" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="Y59" s="11"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="1"/>
+      <c r="AF59" s="1"/>
     </row>
     <row r="60" spans="2:32">
-      <c r="B60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y60" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA60" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB60" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="Y60" s="11"/>
+      <c r="AB60" s="1"/>
+      <c r="AF60" s="1"/>
     </row>
     <row r="61" spans="2:32">
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y61" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA61" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="Y61" s="11"/>
+      <c r="AB61" s="1"/>
+      <c r="AF61" s="1"/>
     </row>
     <row r="62" spans="2:32">
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y62" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>118000</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="Y62" s="11"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="1"/>
+      <c r="AF62" s="1"/>
     </row>
     <row r="63" spans="2:32">
-      <c r="B63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y63" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA63" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB63" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF63" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="Y63" s="11"/>
+      <c r="AB63" s="1"/>
+      <c r="AF63" s="1"/>
     </row>
     <row r="64" spans="2:32">
-      <c r="B64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y64" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA64" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="Y64" s="11"/>
+      <c r="AB64" s="1"/>
+      <c r="AF64" s="1"/>
     </row>
     <row r="65" spans="2:32">
-      <c r="B65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y65" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA65" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="Y65" s="11"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="1"/>
+      <c r="AF65" s="1"/>
     </row>
     <row r="66" spans="2:32">
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y66" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA66" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="Y66" s="11"/>
+      <c r="AB66" s="1"/>
+      <c r="AF66" s="1"/>
     </row>
     <row r="67" spans="2:32">
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y67" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA67" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF67" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="Y67" s="11"/>
+      <c r="AB67" s="1"/>
+      <c r="AF67" s="1"/>
     </row>
     <row r="68" spans="2:32">
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y68" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA68" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB68" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>110000</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="Y68" s="11"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="1"/>
+      <c r="AF68" s="1"/>
     </row>
     <row r="69" spans="2:32">
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y69" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA69" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB69" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="Y69" s="11"/>
+      <c r="AB69" s="1"/>
+      <c r="AF69" s="1"/>
     </row>
     <row r="70" spans="2:32">
-      <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y70" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA70" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="Y70" s="11"/>
+      <c r="AB70" s="1"/>
+      <c r="AF70" s="1"/>
     </row>
     <row r="71" spans="2:32">
-      <c r="B71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y71" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA71" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB71" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="Y71" s="11"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="1"/>
+      <c r="AF71" s="1"/>
     </row>
     <row r="72" spans="2:32">
-      <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y72" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA72" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB72" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AF72" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="Y72" s="11"/>
+      <c r="AB72" s="1"/>
+      <c r="AF72" s="1"/>
     </row>
     <row r="73" spans="2:32">
-      <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y73" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA73" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB73" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="Y73" s="11"/>
+      <c r="AB73" s="1"/>
+      <c r="AF73" s="1"/>
     </row>
     <row r="74" spans="2:32">
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y74" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA74" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB74" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF74" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="Y74" s="11"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="1"/>
+      <c r="AF74" s="1"/>
     </row>
     <row r="75" spans="2:32">
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y75" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA75" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AF75" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="Y75" s="11"/>
+      <c r="AB75" s="1"/>
+      <c r="AF75" s="1"/>
     </row>
     <row r="76" spans="2:32">
-      <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y76" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA76" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB76" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF76" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="Y76" s="11"/>
+      <c r="AB76" s="1"/>
+      <c r="AF76" s="1"/>
     </row>
     <row r="77" spans="2:32">
-      <c r="B77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y77" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA77" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB77" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF77" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="Y77" s="11"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="1"/>
+      <c r="AF77" s="1"/>
     </row>
     <row r="78" spans="2:32">
-      <c r="B78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y78" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA78" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB78" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF78" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="Y78" s="11"/>
+      <c r="AB78" s="1"/>
+      <c r="AF78" s="1"/>
     </row>
     <row r="79" spans="2:32">
-      <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y79" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA79" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB79" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF79" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="Y79" s="11"/>
+      <c r="AB79" s="1"/>
+      <c r="AF79" s="1"/>
     </row>
     <row r="80" spans="2:32">
-      <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y80" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA80" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB80" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF80" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="Y80" s="11"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="1"/>
+      <c r="AF80" s="1"/>
     </row>
     <row r="81" spans="2:32">
-      <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y81" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA81" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB81" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AF81" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="Y81" s="11"/>
+      <c r="AB81" s="1"/>
+      <c r="AF81" s="1"/>
     </row>
     <row r="82" spans="2:32">
-      <c r="B82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y82" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA82" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB82" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF82" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="Y82" s="11"/>
+      <c r="AB82" s="1"/>
+      <c r="AF82" s="1"/>
     </row>
     <row r="83" spans="2:32">
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y83" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB83" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF83" s="1">
-        <v>100000</v>
-      </c>
+      <c r="B83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="Y83" s="11"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="1"/>
+      <c r="AF83" s="1"/>
     </row>
     <row r="84" spans="2:32">
-      <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y84" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA84" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB84" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF84" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="Y84" s="11"/>
+      <c r="AB84" s="1"/>
+      <c r="AF84" s="1"/>
     </row>
     <row r="85" spans="2:32">
-      <c r="B85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y85" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA85" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB85" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF85" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="Y85" s="11"/>
+      <c r="AB85" s="1"/>
+      <c r="AF85" s="1"/>
     </row>
     <row r="86" spans="2:32">
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y86" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB86" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF86" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="Y86" s="11"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="1"/>
+      <c r="AF86" s="1"/>
     </row>
     <row r="87" spans="2:32">
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y87" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA87" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB87" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF87" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="Y87" s="11"/>
+      <c r="AB87" s="1"/>
+      <c r="AF87" s="1"/>
     </row>
     <row r="88" spans="2:32">
-      <c r="B88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y88" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA88" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF88" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="Y88" s="11"/>
+      <c r="AB88" s="1"/>
+      <c r="AF88" s="1"/>
     </row>
     <row r="89" spans="2:32">
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y89" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB89" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>139000</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="Y89" s="11"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="1"/>
+      <c r="AF89" s="1"/>
     </row>
     <row r="90" spans="2:32">
-      <c r="B90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y90" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA90" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB90" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF90" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="Y90" s="11"/>
+      <c r="AB90" s="1"/>
+      <c r="AF90" s="1"/>
     </row>
     <row r="91" spans="2:32">
-      <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y91" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA91" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB91" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF91" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="Y91" s="11"/>
+      <c r="AB91" s="1"/>
+      <c r="AF91" s="1"/>
     </row>
     <row r="92" spans="2:32">
-      <c r="B92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y92" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF92" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="Y92" s="11"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="1"/>
+      <c r="AF92" s="1"/>
     </row>
     <row r="93" spans="2:32">
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y93" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA93" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB93" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF93" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="Y93" s="11"/>
+      <c r="AB93" s="1"/>
+      <c r="AF93" s="1"/>
     </row>
     <row r="94" spans="2:32">
-      <c r="B94" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y94" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA94" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB94" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF94" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="Y94" s="11"/>
+      <c r="AB94" s="1"/>
+      <c r="AF94" s="1"/>
     </row>
     <row r="95" spans="2:32">
-      <c r="B95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y95" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB95" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF95" s="1">
-        <v>98000</v>
-      </c>
+      <c r="B95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="Y95" s="11"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="1"/>
+      <c r="AF95" s="1"/>
     </row>
     <row r="96" spans="2:32">
-      <c r="B96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y96" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA96" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB96" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF96" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="Y96" s="11"/>
+      <c r="AB96" s="1"/>
+      <c r="AF96" s="1"/>
     </row>
     <row r="97" spans="2:32">
-      <c r="B97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y97" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA97" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB97" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF97" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="Y97" s="11"/>
+      <c r="AB97" s="1"/>
+      <c r="AF97" s="1"/>
     </row>
     <row r="98" spans="2:32">
-      <c r="B98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y98" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA98" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB98" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF98" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="Y98" s="11"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="1"/>
+      <c r="AF98" s="1"/>
     </row>
     <row r="99" spans="2:32">
-      <c r="B99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y99" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA99" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB99" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF99" s="1">
-        <v>110000</v>
-      </c>
+      <c r="B99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="Y99" s="11"/>
+      <c r="AB99" s="1"/>
+      <c r="AF99" s="1"/>
     </row>
     <row r="100" spans="2:32">
-      <c r="B100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y100" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA100" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB100" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF100" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="Y100" s="11"/>
+      <c r="AB100" s="1"/>
+      <c r="AF100" s="1"/>
     </row>
     <row r="101" spans="2:32">
-      <c r="B101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y101" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB101" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF101" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="Y101" s="11"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="1"/>
+      <c r="AF101" s="1"/>
     </row>
     <row r="102" spans="2:32">
-      <c r="B102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y102" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA102" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB102" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF102" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="Y102" s="11"/>
+      <c r="AB102" s="1"/>
+      <c r="AF102" s="1"/>
     </row>
     <row r="103" spans="2:32">
-      <c r="B103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y103" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA103" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB103" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF103" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="Y103" s="11"/>
+      <c r="AB103" s="1"/>
+      <c r="AF103" s="1"/>
     </row>
     <row r="104" spans="2:32">
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y104" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA104" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB104" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF104" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="Y104" s="11"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="1"/>
+      <c r="AF104" s="1"/>
     </row>
     <row r="105" spans="2:32">
-      <c r="B105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y105" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA105" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB105" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF105" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="Y105" s="11"/>
+      <c r="AB105" s="1"/>
+      <c r="AF105" s="1"/>
     </row>
     <row r="106" spans="2:32">
-      <c r="B106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y106" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA106" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB106" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="Y106" s="11"/>
+      <c r="AB106" s="1"/>
+      <c r="AF106" s="1"/>
     </row>
     <row r="107" spans="2:32">
-      <c r="B107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y107" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA107" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB107" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF107" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="Y107" s="11"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="1"/>
+      <c r="AF107" s="1"/>
     </row>
     <row r="108" spans="2:32">
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y108" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA108" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB108" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF108" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="Y108" s="11"/>
+      <c r="AB108" s="1"/>
+      <c r="AF108" s="1"/>
     </row>
     <row r="109" spans="2:32">
-      <c r="B109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y109" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA109" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB109" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF109" s="1">
-        <v>105000</v>
-      </c>
+      <c r="B109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="Y109" s="11"/>
+      <c r="AB109" s="1"/>
+      <c r="AF109" s="1"/>
     </row>
     <row r="110" spans="2:32">
-      <c r="B110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y110" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA110" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB110" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF110" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="Y110" s="11"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="1"/>
+      <c r="AF110" s="1"/>
     </row>
     <row r="111" spans="2:32">
-      <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y111" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA111" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB111" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF111" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="Y111" s="11"/>
+      <c r="AB111" s="1"/>
+      <c r="AF111" s="1"/>
     </row>
     <row r="112" spans="2:32">
-      <c r="B112" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y112" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA112" s="4">
-        <v>45179.625</v>
-      </c>
-      <c r="AB112" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF112" s="1">
-        <v>120000</v>
-      </c>
+      <c r="B112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="Y112" s="11"/>
+      <c r="AB112" s="1"/>
+      <c r="AF112" s="1"/>
     </row>
     <row r="113" spans="2:32">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF113" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF113" s="1"/>
     </row>
     <row r="114" spans="2:32">
-      <c r="AF114" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF114" s="1"/>
     </row>
     <row r="115" spans="2:32">
-      <c r="AF115" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF115" s="1"/>
     </row>
     <row r="116" spans="2:32">
-      <c r="AF116" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF116" s="1"/>
     </row>
     <row r="117" spans="2:32">
-      <c r="AF117" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF117" s="1"/>
     </row>
     <row r="118" spans="2:32">
-      <c r="AF118" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF118" s="1"/>
     </row>
     <row r="119" spans="2:32">
-      <c r="AF119" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF119" s="1"/>
     </row>
     <row r="120" spans="2:32">
-      <c r="AF120" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF120" s="1"/>
     </row>
     <row r="121" spans="2:32">
-      <c r="AF121" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF121" s="1"/>
     </row>
     <row r="122" spans="2:32">
-      <c r="AF122" s="1">
-        <v>120000</v>
-      </c>
+      <c r="AF122" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/KOPIS_data1.xlsx
+++ b/static/KOPIS_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A90411-7072-0A44-9B13-6D5008B334FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907AA2F-076A-3F4D-A8D4-AE77D45C52BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="960" windowWidth="21100" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
+    <workbookView xWindow="5880" yWindow="980" windowWidth="21100" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="401">
   <si>
     <t>SE000201</t>
   </si>
@@ -1197,6 +1197,342 @@
   </si>
   <si>
     <t>202-07-09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0897847620</t>
+  </si>
+  <si>
+    <t>T0897847621</t>
+  </si>
+  <si>
+    <t>T0897847622</t>
+  </si>
+  <si>
+    <t>T0897847623</t>
+  </si>
+  <si>
+    <t>T0897847624</t>
+  </si>
+  <si>
+    <t>T0897847625</t>
+  </si>
+  <si>
+    <t>T0897847626</t>
+  </si>
+  <si>
+    <t>T0897847627</t>
+  </si>
+  <si>
+    <t>T0897847628</t>
+  </si>
+  <si>
+    <t>T0897847629</t>
+  </si>
+  <si>
+    <t>T0897847630</t>
+  </si>
+  <si>
+    <t>T0897847631</t>
+  </si>
+  <si>
+    <t>T0897847632</t>
+  </si>
+  <si>
+    <t>T0897847633</t>
+  </si>
+  <si>
+    <t>T0897847634</t>
+  </si>
+  <si>
+    <t>T0897847635</t>
+  </si>
+  <si>
+    <t>T0897847636</t>
+  </si>
+  <si>
+    <t>T0897847637</t>
+  </si>
+  <si>
+    <t>T0897847638</t>
+  </si>
+  <si>
+    <t>T0897847639</t>
+  </si>
+  <si>
+    <t>T0897847640</t>
+  </si>
+  <si>
+    <t>T0897847641</t>
+  </si>
+  <si>
+    <t>T0897847642</t>
+  </si>
+  <si>
+    <t>T0897847643</t>
+  </si>
+  <si>
+    <t>T0897847644</t>
+  </si>
+  <si>
+    <t>T0897847645</t>
+  </si>
+  <si>
+    <t>T0897847646</t>
+  </si>
+  <si>
+    <t>T0897847647</t>
+  </si>
+  <si>
+    <t>T0897847648</t>
+  </si>
+  <si>
+    <t>T0897847649</t>
+  </si>
+  <si>
+    <t>T0897847650</t>
+  </si>
+  <si>
+    <t>T0897847651</t>
+  </si>
+  <si>
+    <t>T0897847652</t>
+  </si>
+  <si>
+    <t>T0897847653</t>
+  </si>
+  <si>
+    <t>T0897847654</t>
+  </si>
+  <si>
+    <t>T0897847655</t>
+  </si>
+  <si>
+    <t>T0897847656</t>
+  </si>
+  <si>
+    <t>T0897847657</t>
+  </si>
+  <si>
+    <t>T0897847658</t>
+  </si>
+  <si>
+    <t>T0897847659</t>
+  </si>
+  <si>
+    <t>T0897847660</t>
+  </si>
+  <si>
+    <t>T0897847661</t>
+  </si>
+  <si>
+    <t>T0897847662</t>
+  </si>
+  <si>
+    <t>T0897847663</t>
+  </si>
+  <si>
+    <t>T0897847664</t>
+  </si>
+  <si>
+    <t>T0897847665</t>
+  </si>
+  <si>
+    <t>T0897847666</t>
+  </si>
+  <si>
+    <t>T0897847667</t>
+  </si>
+  <si>
+    <t>T0897847668</t>
+  </si>
+  <si>
+    <t>T0897847669</t>
+  </si>
+  <si>
+    <t>T0897847670</t>
+  </si>
+  <si>
+    <t>T0897847671</t>
+  </si>
+  <si>
+    <t>T0897847672</t>
+  </si>
+  <si>
+    <t>T0897847673</t>
+  </si>
+  <si>
+    <t>T0897847674</t>
+  </si>
+  <si>
+    <t>T0897847675</t>
+  </si>
+  <si>
+    <t>T0897847676</t>
+  </si>
+  <si>
+    <t>T0897847677</t>
+  </si>
+  <si>
+    <t>T0897847678</t>
+  </si>
+  <si>
+    <t>T0897847679</t>
+  </si>
+  <si>
+    <t>T0897847680</t>
+  </si>
+  <si>
+    <t>T0897847681</t>
+  </si>
+  <si>
+    <t>T0897847682</t>
+  </si>
+  <si>
+    <t>T0897847683</t>
+  </si>
+  <si>
+    <t>T0897847684</t>
+  </si>
+  <si>
+    <t>T0897847685</t>
+  </si>
+  <si>
+    <t>T0897847686</t>
+  </si>
+  <si>
+    <t>T0897847687</t>
+  </si>
+  <si>
+    <t>T0897847688</t>
+  </si>
+  <si>
+    <t>T0897847689</t>
+  </si>
+  <si>
+    <t>T0897847690</t>
+  </si>
+  <si>
+    <t>T0897847691</t>
+  </si>
+  <si>
+    <t>T0897847692</t>
+  </si>
+  <si>
+    <t>T0897847693</t>
+  </si>
+  <si>
+    <t>T0897847694</t>
+  </si>
+  <si>
+    <t>T0897847695</t>
+  </si>
+  <si>
+    <t>T0897847696</t>
+  </si>
+  <si>
+    <t>T0897847697</t>
+  </si>
+  <si>
+    <t>T0897847698</t>
+  </si>
+  <si>
+    <t>T0897847699</t>
+  </si>
+  <si>
+    <t>T0897847700</t>
+  </si>
+  <si>
+    <t>T0897847701</t>
+  </si>
+  <si>
+    <t>T0897847702</t>
+  </si>
+  <si>
+    <t>T0897847703</t>
+  </si>
+  <si>
+    <t>T0897847704</t>
+  </si>
+  <si>
+    <t>T0897847705</t>
+  </si>
+  <si>
+    <t>T0897847706</t>
+  </si>
+  <si>
+    <t>T0897847707</t>
+  </si>
+  <si>
+    <t>T0897847708</t>
+  </si>
+  <si>
+    <t>T0897847709</t>
+  </si>
+  <si>
+    <t>T0897847710</t>
+  </si>
+  <si>
+    <t>T0897847711</t>
+  </si>
+  <si>
+    <t>T0897847712</t>
+  </si>
+  <si>
+    <t>T0897847713</t>
+  </si>
+  <si>
+    <t>T0897847714</t>
+  </si>
+  <si>
+    <t>T0897847715</t>
+  </si>
+  <si>
+    <t>T0897847716</t>
+  </si>
+  <si>
+    <t>T0897847717</t>
+  </si>
+  <si>
+    <t>T0897847718</t>
+  </si>
+  <si>
+    <t>T0897847719</t>
+  </si>
+  <si>
+    <t>T0897847720</t>
+  </si>
+  <si>
+    <t>T0897847721</t>
+  </si>
+  <si>
+    <t>T0897847722</t>
+  </si>
+  <si>
+    <t>T0897847723</t>
+  </si>
+  <si>
+    <t>T0897847724</t>
+  </si>
+  <si>
+    <t>T0897847725</t>
+  </si>
+  <si>
+    <t>T0897847726</t>
+  </si>
+  <si>
+    <t>T0897847727</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원할인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재관람할인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1676,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E68AD-46E5-DD4E-B482-C3F3BFF2B2E7}">
   <dimension ref="A1:BP122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AF44" sqref="AF44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3837,769 +4173,2201 @@
       </c>
     </row>
     <row r="12" spans="1:68">
-      <c r="B12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="Y12" s="11"/>
-      <c r="AB12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="B13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="Y13" s="11"/>
-      <c r="AB13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="14" spans="1:68">
-      <c r="B14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="Y14" s="11"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="15" spans="1:68">
-      <c r="B15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="Y15" s="11"/>
-      <c r="AB15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="16" spans="1:68">
-      <c r="B16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="Y16" s="11"/>
-      <c r="AB16" s="1"/>
-      <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="2:32">
-      <c r="B17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="W17" s="6"/>
-      <c r="Y17" s="11"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="1"/>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="2:32">
-      <c r="B18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="Y18" s="11"/>
-      <c r="AB18" s="1"/>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="2:32">
-      <c r="B19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="Y19" s="11"/>
-      <c r="AB19" s="1"/>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="2:32">
-      <c r="B20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="Y20" s="11"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="1"/>
-      <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="2:32">
-      <c r="B21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="Y21" s="11"/>
-      <c r="AB21" s="1"/>
-      <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="2:32">
-      <c r="B22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="Y22" s="11"/>
-      <c r="AB22" s="1"/>
-      <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="2:32">
-      <c r="B23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="Y23" s="11"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="1"/>
-      <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="2:32">
-      <c r="B24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="Y24" s="11"/>
-      <c r="AB24" s="1"/>
-      <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="2:32">
-      <c r="B25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="Y25" s="11"/>
-      <c r="AB25" s="1"/>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="2:32">
-      <c r="B26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="Y26" s="11"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="1"/>
-      <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="2:32">
-      <c r="B27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="Y27" s="11"/>
-      <c r="AB27" s="1"/>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="2:32">
-      <c r="B28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="Y28" s="11"/>
-      <c r="AB28" s="1"/>
-      <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="2:32">
-      <c r="B29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="Y29" s="11"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="1"/>
-      <c r="AF29" s="1"/>
-    </row>
-    <row r="30" spans="2:32">
-      <c r="B30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="Y30" s="11"/>
-      <c r="AB30" s="1"/>
-      <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="2:32">
-      <c r="B31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="Y31" s="11"/>
-      <c r="AB31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" spans="2:32">
-      <c r="B32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="Y32" s="11"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="1"/>
-      <c r="AF32" s="1"/>
-    </row>
-    <row r="33" spans="2:32">
-      <c r="B33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="Y33" s="11"/>
-      <c r="AB33" s="1"/>
-      <c r="AF33" s="1"/>
-    </row>
-    <row r="34" spans="2:32">
-      <c r="B34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="Y34" s="11"/>
-      <c r="AB34" s="1"/>
-      <c r="AF34" s="1"/>
-    </row>
-    <row r="35" spans="2:32">
-      <c r="B35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="Y35" s="11"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="1"/>
-      <c r="AF35" s="1"/>
-    </row>
-    <row r="36" spans="2:32">
-      <c r="B36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="Y36" s="11"/>
-      <c r="AB36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="2:32">
-      <c r="B37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="Y37" s="11"/>
-      <c r="AB37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="2:32">
-      <c r="B38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="Y38" s="11"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="1"/>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="2:32">
-      <c r="B39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="Y39" s="11"/>
-      <c r="AB39" s="1"/>
-      <c r="AF39" s="1"/>
-    </row>
-    <row r="40" spans="2:32">
-      <c r="B40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="Y40" s="11"/>
-      <c r="AB40" s="1"/>
-      <c r="AF40" s="1"/>
-    </row>
-    <row r="41" spans="2:32">
-      <c r="B41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="Y41" s="11"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="1"/>
-      <c r="AF41" s="1"/>
-    </row>
-    <row r="42" spans="2:32">
-      <c r="B42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="Y42" s="11"/>
-      <c r="AB42" s="1"/>
-      <c r="AF42" s="1"/>
-    </row>
-    <row r="43" spans="2:32">
-      <c r="B43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="Y43" s="11"/>
-      <c r="AB43" s="1"/>
-      <c r="AF43" s="1"/>
-    </row>
-    <row r="44" spans="2:32">
-      <c r="B44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="Y44" s="11"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="1"/>
-      <c r="AF44" s="1"/>
-    </row>
-    <row r="45" spans="2:32">
-      <c r="B45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="Y45" s="11"/>
-      <c r="AB45" s="1"/>
-      <c r="AF45" s="1"/>
-    </row>
-    <row r="46" spans="2:32">
-      <c r="B46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="Y46" s="11"/>
-      <c r="AB46" s="1"/>
-      <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="2:32">
-      <c r="B47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="Y47" s="11"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="2:32">
-      <c r="B48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="Y48" s="11"/>
-      <c r="AB48" s="1"/>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="2:32">
-      <c r="B49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="Y49" s="11"/>
-      <c r="AB49" s="1"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="2:32">
-      <c r="B50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="Y50" s="11"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="1"/>
-      <c r="AF50" s="1"/>
-    </row>
-    <row r="51" spans="2:32">
-      <c r="B51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="Y51" s="11"/>
-      <c r="AB51" s="1"/>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="2:32">
-      <c r="B52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="Y52" s="11"/>
-      <c r="AB52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="2:32">
-      <c r="B53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="Y53" s="11"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="1"/>
-      <c r="AF53" s="1"/>
-    </row>
-    <row r="54" spans="2:32">
-      <c r="B54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="Y54" s="11"/>
-      <c r="AB54" s="1"/>
-      <c r="AF54" s="1"/>
-    </row>
-    <row r="55" spans="2:32">
-      <c r="B55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="Y55" s="11"/>
-      <c r="AB55" s="1"/>
-      <c r="AF55" s="1"/>
-    </row>
-    <row r="56" spans="2:32">
-      <c r="B56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="Y56" s="11"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="1"/>
-      <c r="AF56" s="1"/>
-    </row>
-    <row r="57" spans="2:32">
-      <c r="B57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="Y57" s="11"/>
-      <c r="AB57" s="1"/>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="2:32">
-      <c r="B58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="Y58" s="11"/>
-      <c r="AB58" s="1"/>
-      <c r="AF58" s="1"/>
-    </row>
-    <row r="59" spans="2:32">
-      <c r="B59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="Y59" s="11"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="1"/>
-      <c r="AF59" s="1"/>
-    </row>
-    <row r="60" spans="2:32">
-      <c r="B60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="Y60" s="11"/>
-      <c r="AB60" s="1"/>
-      <c r="AF60" s="1"/>
-    </row>
-    <row r="61" spans="2:32">
-      <c r="B61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="Y61" s="11"/>
-      <c r="AB61" s="1"/>
-      <c r="AF61" s="1"/>
-    </row>
-    <row r="62" spans="2:32">
-      <c r="B62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="Y62" s="11"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="1"/>
-      <c r="AF62" s="1"/>
-    </row>
-    <row r="63" spans="2:32">
-      <c r="B63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="Y63" s="11"/>
-      <c r="AB63" s="1"/>
-      <c r="AF63" s="1"/>
-    </row>
-    <row r="64" spans="2:32">
-      <c r="B64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="Y64" s="11"/>
-      <c r="AB64" s="1"/>
-      <c r="AF64" s="1"/>
-    </row>
-    <row r="65" spans="2:32">
-      <c r="B65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="Y65" s="11"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="1"/>
-      <c r="AF65" s="1"/>
-    </row>
-    <row r="66" spans="2:32">
-      <c r="B66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="Y66" s="11"/>
-      <c r="AB66" s="1"/>
-      <c r="AF66" s="1"/>
-    </row>
-    <row r="67" spans="2:32">
-      <c r="B67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="Y67" s="11"/>
-      <c r="AB67" s="1"/>
-      <c r="AF67" s="1"/>
-    </row>
-    <row r="68" spans="2:32">
-      <c r="B68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="Y68" s="11"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="1"/>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="2:32">
-      <c r="B69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="Y69" s="11"/>
-      <c r="AB69" s="1"/>
-      <c r="AF69" s="1"/>
-    </row>
-    <row r="70" spans="2:32">
-      <c r="B70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="Y70" s="11"/>
-      <c r="AB70" s="1"/>
-      <c r="AF70" s="1"/>
-    </row>
-    <row r="71" spans="2:32">
-      <c r="B71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="Y71" s="11"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="1"/>
-      <c r="AF71" s="1"/>
-    </row>
-    <row r="72" spans="2:32">
-      <c r="B72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="Y72" s="11"/>
-      <c r="AB72" s="1"/>
-      <c r="AF72" s="1"/>
-    </row>
-    <row r="73" spans="2:32">
-      <c r="B73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="Y73" s="11"/>
-      <c r="AB73" s="1"/>
-      <c r="AF73" s="1"/>
-    </row>
-    <row r="74" spans="2:32">
-      <c r="B74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="Y74" s="11"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="1"/>
-      <c r="AF74" s="1"/>
-    </row>
-    <row r="75" spans="2:32">
-      <c r="B75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="Y75" s="11"/>
-      <c r="AB75" s="1"/>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" spans="2:32">
-      <c r="B76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="Y76" s="11"/>
-      <c r="AB76" s="1"/>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" spans="2:32">
-      <c r="B77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="Y77" s="11"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="1"/>
-      <c r="AF77" s="1"/>
-    </row>
-    <row r="78" spans="2:32">
-      <c r="B78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="Y78" s="11"/>
-      <c r="AB78" s="1"/>
-      <c r="AF78" s="1"/>
-    </row>
-    <row r="79" spans="2:32">
-      <c r="B79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="Y79" s="11"/>
-      <c r="AB79" s="1"/>
-      <c r="AF79" s="1"/>
-    </row>
-    <row r="80" spans="2:32">
-      <c r="B80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="Y80" s="11"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="1"/>
-      <c r="AF80" s="1"/>
-    </row>
-    <row r="81" spans="2:32">
-      <c r="B81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="Y81" s="11"/>
-      <c r="AB81" s="1"/>
-      <c r="AF81" s="1"/>
-    </row>
-    <row r="82" spans="2:32">
-      <c r="B82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="Y82" s="11"/>
-      <c r="AB82" s="1"/>
-      <c r="AF82" s="1"/>
-    </row>
-    <row r="83" spans="2:32">
-      <c r="B83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="Y83" s="11"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="1"/>
-      <c r="AF83" s="1"/>
-    </row>
-    <row r="84" spans="2:32">
-      <c r="B84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="Y84" s="11"/>
-      <c r="AB84" s="1"/>
-      <c r="AF84" s="1"/>
-    </row>
-    <row r="85" spans="2:32">
-      <c r="B85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="Y85" s="11"/>
-      <c r="AB85" s="1"/>
-      <c r="AF85" s="1"/>
-    </row>
-    <row r="86" spans="2:32">
-      <c r="B86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="Y86" s="11"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="1"/>
-      <c r="AF86" s="1"/>
-    </row>
-    <row r="87" spans="2:32">
-      <c r="B87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="Y87" s="11"/>
-      <c r="AB87" s="1"/>
-      <c r="AF87" s="1"/>
-    </row>
-    <row r="88" spans="2:32">
-      <c r="B88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="Y88" s="11"/>
-      <c r="AB88" s="1"/>
-      <c r="AF88" s="1"/>
-    </row>
-    <row r="89" spans="2:32">
-      <c r="B89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="Y89" s="11"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="1"/>
-      <c r="AF89" s="1"/>
-    </row>
-    <row r="90" spans="2:32">
-      <c r="B90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="Y90" s="11"/>
-      <c r="AB90" s="1"/>
-      <c r="AF90" s="1"/>
-    </row>
-    <row r="91" spans="2:32">
-      <c r="B91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="Y91" s="11"/>
-      <c r="AB91" s="1"/>
-      <c r="AF91" s="1"/>
-    </row>
-    <row r="92" spans="2:32">
-      <c r="B92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="Y92" s="11"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="1"/>
-      <c r="AF92" s="1"/>
-    </row>
-    <row r="93" spans="2:32">
-      <c r="B93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="Y93" s="11"/>
-      <c r="AB93" s="1"/>
-      <c r="AF93" s="1"/>
-    </row>
-    <row r="94" spans="2:32">
-      <c r="B94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="Y94" s="11"/>
-      <c r="AB94" s="1"/>
-      <c r="AF94" s="1"/>
-    </row>
-    <row r="95" spans="2:32">
-      <c r="B95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="Y95" s="11"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="1"/>
-      <c r="AF95" s="1"/>
-    </row>
-    <row r="96" spans="2:32">
-      <c r="B96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="Y96" s="11"/>
-      <c r="AB96" s="1"/>
-      <c r="AF96" s="1"/>
+      <c r="Y17" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y18" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42">
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>120000</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y32" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42">
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>120000</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42">
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y36" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y38" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42">
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>120000</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:42">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:42">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:42">
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42">
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>85000</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42">
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>85000</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:42">
+      <c r="B46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y46" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:42">
+      <c r="B47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:42">
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:42">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>70000</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="2:42">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:42">
+      <c r="B51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:42">
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y52" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:42">
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y53" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:42">
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y54" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:42">
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:42">
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y56" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:42">
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:42">
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:42">
+      <c r="B59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y59" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:42">
+      <c r="B60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y60" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:42">
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y61" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:42">
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y62" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA62" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:42">
+      <c r="B63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y63" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:42">
+      <c r="B64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:42">
+      <c r="B65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y65" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>90000</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="66" spans="2:42">
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y66" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:42">
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:42">
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y68" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:42">
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y69" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="2:42">
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y70" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:42">
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y71" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:42">
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y72" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:42">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y73" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:42">
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y74" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA74" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>110000</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="2:42">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y75" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:42">
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y76" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA76" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:42">
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y77" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:42">
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y78" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA78" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:42">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y79" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:42">
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y80" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA80" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB80" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:42">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y81" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB81" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>120000</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="2:42">
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y82" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA82" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:42">
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:42">
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA84" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:42">
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y85" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:42">
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y86" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>118000</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="2:42">
+      <c r="B87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y87" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:42">
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y88" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:42">
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y89" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:42">
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y90" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:42">
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y91" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>120000</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="2:42">
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA92" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:42">
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y93" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:42">
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA94" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:42">
+      <c r="B95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y95" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:42">
+      <c r="B96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y96" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="97" spans="2:32">
-      <c r="B97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="Y97" s="11"/>
-      <c r="AB97" s="1"/>
-      <c r="AF97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y97" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="98" spans="2:32">
-      <c r="B98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="Y98" s="11"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="1"/>
-      <c r="AF98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y98" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="99" spans="2:32">
-      <c r="B99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="Y99" s="11"/>
-      <c r="AB99" s="1"/>
-      <c r="AF99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y99" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="100" spans="2:32">
-      <c r="B100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="Y100" s="11"/>
-      <c r="AB100" s="1"/>
-      <c r="AF100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y100" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF100" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="101" spans="2:32">
-      <c r="B101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="Y101" s="11"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="1"/>
-      <c r="AF101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y101" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="102" spans="2:32">
-      <c r="B102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="Y102" s="11"/>
-      <c r="AB102" s="1"/>
-      <c r="AF102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y102" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="103" spans="2:32">
-      <c r="B103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="Y103" s="11"/>
-      <c r="AB103" s="1"/>
-      <c r="AF103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y103" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="104" spans="2:32">
-      <c r="B104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="Y104" s="11"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="1"/>
-      <c r="AF104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y104" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA104" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="105" spans="2:32">
-      <c r="B105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="Y105" s="11"/>
-      <c r="AB105" s="1"/>
-      <c r="AF105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y105" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA105" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF105" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="106" spans="2:32">
-      <c r="B106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="Y106" s="11"/>
-      <c r="AB106" s="1"/>
-      <c r="AF106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y106" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF106" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="107" spans="2:32">
-      <c r="B107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="Y107" s="11"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="1"/>
-      <c r="AF107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y107" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="108" spans="2:32">
-      <c r="B108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="Y108" s="11"/>
-      <c r="AB108" s="1"/>
-      <c r="AF108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y108" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB108" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF108" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="109" spans="2:32">
-      <c r="B109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="Y109" s="11"/>
-      <c r="AB109" s="1"/>
-      <c r="AF109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y109" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA109" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF109" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="110" spans="2:32">
-      <c r="B110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="Y110" s="11"/>
-      <c r="AA110" s="3"/>
-      <c r="AB110" s="1"/>
-      <c r="AF110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y110" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA110" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AF110" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="111" spans="2:32">
-      <c r="B111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="Y111" s="11"/>
-      <c r="AB111" s="1"/>
-      <c r="AF111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y111" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF111" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="112" spans="2:32">
-      <c r="B112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="Y112" s="11"/>
-      <c r="AB112" s="1"/>
-      <c r="AF112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y112" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF112" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="113" spans="2:32">
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AF113" s="1"/>
+      <c r="R113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y113" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA113" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF113" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="114" spans="2:32">
-      <c r="AF114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y114" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA114" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB114" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF114" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="115" spans="2:32">
-      <c r="AF115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y115" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA115" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB115" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF115" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="116" spans="2:32">
-      <c r="AF116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y116" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA116" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF116" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="117" spans="2:32">
-      <c r="AF117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y117" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA117" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB117" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF117" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="118" spans="2:32">
-      <c r="AF118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y118" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA118" s="4">
+        <v>45179.625</v>
+      </c>
+      <c r="AB118" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF118" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="119" spans="2:32">
-      <c r="AF119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y119" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA119" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB119" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AF119" s="1">
+        <v>120000</v>
+      </c>
     </row>
     <row r="120" spans="2:32">
       <c r="AF120" s="1"/>

--- a/static/KOPIS_data1.xlsx
+++ b/static/KOPIS_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieun/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907AA2F-076A-3F4D-A8D4-AE77D45C52BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B4525-57E3-CA4F-9EF0-5A5CC50FCC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="980" windowWidth="21100" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
+    <workbookView xWindow="5880" yWindow="960" windowWidth="21100" windowHeight="15600" xr2:uid="{F0818CD2-5FCA-5D4A-A9BA-8EABD6630866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1084,57 +1084,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오페라의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유령</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서울</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T0897847619</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1200,9 +1149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T0897847620</t>
-  </si>
-  <si>
     <t>T0897847621</t>
   </si>
   <si>
@@ -1248,9 +1194,6 @@
     <t>T0897847635</t>
   </si>
   <si>
-    <t>T0897847636</t>
-  </si>
-  <si>
     <t>T0897847637</t>
   </si>
   <si>
@@ -1519,9 +1462,6 @@
   </si>
   <si>
     <t>T0897847726</t>
-  </si>
-  <si>
-    <t>T0897847727</t>
   </si>
   <si>
     <t>기타</t>
@@ -1533,6 +1473,22 @@
   </si>
   <si>
     <t>재관람할인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0897847636</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0897847727</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0897847620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬 &lt;오페라의 유령&gt; - 서울</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1543,7 +1499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d\ h:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1615,13 +1571,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Courier New"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -1688,11 +1637,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2012,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1E68AD-46E5-DD4E-B482-C3F3BFF2B2E7}">
   <dimension ref="A1:BP122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AF44" sqref="AF44"/>
+    <sheetView tabSelected="1" topLeftCell="U87" zoomScale="89" workbookViewId="0">
+      <selection activeCell="Y105" sqref="Y105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2030,7 +1979,7 @@
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>267</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2317,7 +2266,7 @@
       <c r="AB2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AC2" s="12">
         <v>44699.415972222225</v>
       </c>
       <c r="AD2" s="1" t="s">
@@ -2367,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>20</v>
@@ -3295,7 +3244,7 @@
         <v>45190.75</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>176</v>
@@ -3489,7 +3438,7 @@
         <v>45192.8125</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>189</v>
@@ -3881,7 +3830,7 @@
         <v>45190.583333333336</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>222</v>
@@ -4066,17 +4015,17 @@
       <c r="W11" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>45179.625</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>45179.625</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>208</v>
@@ -4094,19 +4043,19 @@
         <v>3</v>
       </c>
       <c r="AH11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AJ11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="AL11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -4115,7 +4064,7 @@
         <v>99</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AQ11" s="1">
         <v>150000</v>
@@ -4133,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AW11" s="1" t="s">
         <v>224</v>
@@ -4157,7 +4106,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>6</v>
@@ -4179,14 +4128,14 @@
       <c r="R12" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y12" s="11" t="s">
-        <v>279</v>
+      <c r="Y12" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA12" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="AF12" s="1">
         <v>120000</v>
@@ -4199,14 +4148,14 @@
       <c r="R13" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>279</v>
+      <c r="Y13" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA13" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF13" s="1">
         <v>120000</v>
@@ -4219,14 +4168,14 @@
       <c r="R14" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>279</v>
+      <c r="Y14" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA14" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF14" s="1">
         <v>120000</v>
@@ -4239,14 +4188,14 @@
       <c r="R15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>279</v>
+      <c r="Y15" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA15" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AF15" s="1">
         <v>120000</v>
@@ -4259,14 +4208,14 @@
       <c r="R16" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y16" s="11" t="s">
-        <v>279</v>
+      <c r="Y16" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA16" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF16" s="1">
         <v>120000</v>
@@ -4280,14 +4229,14 @@
         <v>278</v>
       </c>
       <c r="W17" s="6"/>
-      <c r="Y17" s="11" t="s">
-        <v>279</v>
+      <c r="Y17" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF17" s="1">
         <v>120000</v>
@@ -4300,14 +4249,14 @@
       <c r="R18" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y18" s="11" t="s">
-        <v>279</v>
+      <c r="Y18" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA18" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF18" s="1">
         <v>120000</v>
@@ -4320,14 +4269,14 @@
       <c r="R19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>279</v>
+      <c r="Y19" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA19" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF19" s="1">
         <v>120000</v>
@@ -4340,14 +4289,14 @@
       <c r="R20" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y20" s="11" t="s">
-        <v>279</v>
+      <c r="Y20" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA20" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF20" s="1">
         <v>120000</v>
@@ -4360,14 +4309,14 @@
       <c r="R21" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>279</v>
+      <c r="Y21" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA21" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF21" s="1">
         <v>120000</v>
@@ -4380,14 +4329,14 @@
       <c r="R22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>279</v>
+      <c r="Y22" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA22" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF22" s="1">
         <v>120000</v>
@@ -4400,14 +4349,14 @@
       <c r="R23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>279</v>
+      <c r="Y23" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA23" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AF23" s="1">
         <v>120000</v>
@@ -4420,14 +4369,14 @@
       <c r="R24" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y24" s="11" t="s">
-        <v>279</v>
+      <c r="Y24" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA24" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF24" s="1">
         <v>120000</v>
@@ -4440,14 +4389,14 @@
       <c r="R25" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>279</v>
+      <c r="Y25" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA25" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF25" s="1">
         <v>120000</v>
@@ -4460,14 +4409,14 @@
       <c r="R26" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>279</v>
+      <c r="Y26" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA26" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF26" s="1">
         <v>120000</v>
@@ -4480,14 +4429,14 @@
       <c r="R27" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y27" s="11" t="s">
-        <v>279</v>
+      <c r="Y27" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA27" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AF27" s="1">
         <v>120000</v>
@@ -4500,14 +4449,14 @@
       <c r="R28" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>279</v>
+      <c r="Y28" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA28" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>306</v>
+        <v>397</v>
       </c>
       <c r="AF28" s="1">
         <v>120000</v>
@@ -4520,20 +4469,20 @@
       <c r="R29" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>279</v>
+      <c r="Y29" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA29" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF29" s="1">
         <v>120000</v>
       </c>
       <c r="AP29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="2:42">
@@ -4543,14 +4492,14 @@
       <c r="R30" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y30" s="11" t="s">
-        <v>279</v>
+      <c r="Y30" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA30" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AF30" s="1">
         <v>120000</v>
@@ -4563,14 +4512,14 @@
       <c r="R31" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>279</v>
+      <c r="Y31" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA31" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AF31" s="1">
         <v>120000</v>
@@ -4583,14 +4532,14 @@
       <c r="R32" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y32" s="11" t="s">
-        <v>279</v>
+      <c r="Y32" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA32" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AF32" s="1">
         <v>120000</v>
@@ -4603,14 +4552,14 @@
       <c r="R33" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>279</v>
+      <c r="Y33" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA33" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AF33" s="1">
         <v>120000</v>
@@ -4623,14 +4572,14 @@
       <c r="R34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>279</v>
+      <c r="Y34" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA34" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF34" s="1">
         <v>120000</v>
@@ -4643,20 +4592,20 @@
       <c r="R35" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>279</v>
+      <c r="Y35" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA35" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF35" s="1">
         <v>120000</v>
       </c>
       <c r="AP35" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="2:42">
@@ -4666,14 +4615,14 @@
       <c r="R36" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>279</v>
+      <c r="Y36" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA36" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AF36" s="1">
         <v>120000</v>
@@ -4686,14 +4635,14 @@
       <c r="R37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>279</v>
+      <c r="Y37" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA37" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF37" s="1">
         <v>120000</v>
@@ -4706,14 +4655,14 @@
       <c r="R38" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>279</v>
+      <c r="Y38" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA38" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF38" s="1">
         <v>120000</v>
@@ -4726,20 +4675,20 @@
       <c r="R39" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>279</v>
+      <c r="Y39" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA39" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AF39" s="1">
         <v>120000</v>
       </c>
       <c r="AP39" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="2:42">
@@ -4749,14 +4698,14 @@
       <c r="R40" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>279</v>
+      <c r="Y40" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA40" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AF40" s="1">
         <v>120000</v>
@@ -4769,14 +4718,14 @@
       <c r="R41" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>279</v>
+      <c r="Y41" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA41" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF41" s="1">
         <v>120000</v>
@@ -4789,14 +4738,14 @@
       <c r="R42" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>279</v>
+      <c r="Y42" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA42" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF42" s="1">
         <v>120000</v>
@@ -4809,14 +4758,14 @@
       <c r="R43" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>279</v>
+      <c r="Y43" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA43" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AF43" s="1">
         <v>120000</v>
@@ -4829,20 +4778,20 @@
       <c r="R44" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>279</v>
+      <c r="Y44" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA44" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AF44" s="1">
         <v>85000</v>
       </c>
       <c r="AP44" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="2:42">
@@ -4852,20 +4801,20 @@
       <c r="R45" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>279</v>
+      <c r="Y45" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA45" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AF45" s="1">
         <v>85000</v>
       </c>
       <c r="AP45" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="2:42">
@@ -4875,14 +4824,14 @@
       <c r="R46" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>279</v>
+      <c r="Y46" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA46" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF46" s="1">
         <v>120000</v>
@@ -4895,14 +4844,14 @@
       <c r="R47" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>279</v>
+      <c r="Y47" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA47" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF47" s="1">
         <v>120000</v>
@@ -4915,14 +4864,14 @@
       <c r="R48" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>279</v>
+      <c r="Y48" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA48" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AF48" s="1">
         <v>120000</v>
@@ -4935,20 +4884,20 @@
       <c r="R49" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y49" s="11" t="s">
-        <v>279</v>
+      <c r="Y49" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA49" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AF49" s="1">
         <v>70000</v>
       </c>
       <c r="AP49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="2:42">
@@ -4958,14 +4907,14 @@
       <c r="R50" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>279</v>
+      <c r="Y50" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA50" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AF50" s="1">
         <v>120000</v>
@@ -4978,14 +4927,14 @@
       <c r="R51" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>279</v>
+      <c r="Y51" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA51" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AF51" s="1">
         <v>120000</v>
@@ -4998,14 +4947,14 @@
       <c r="R52" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y52" s="11" t="s">
-        <v>279</v>
+      <c r="Y52" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA52" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AF52" s="1">
         <v>120000</v>
@@ -5018,14 +4967,14 @@
       <c r="R53" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>279</v>
+      <c r="Y53" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA53" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AF53" s="1">
         <v>120000</v>
@@ -5038,14 +4987,14 @@
       <c r="R54" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>279</v>
+      <c r="Y54" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA54" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF54" s="1">
         <v>120000</v>
@@ -5058,14 +5007,14 @@
       <c r="R55" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>279</v>
+      <c r="Y55" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA55" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AF55" s="1">
         <v>120000</v>
@@ -5078,14 +5027,14 @@
       <c r="R56" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>279</v>
+      <c r="Y56" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA56" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF56" s="1">
         <v>120000</v>
@@ -5098,14 +5047,14 @@
       <c r="R57" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>279</v>
+      <c r="Y57" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA57" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AF57" s="1">
         <v>120000</v>
@@ -5118,14 +5067,14 @@
       <c r="R58" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y58" s="11" t="s">
-        <v>279</v>
+      <c r="Y58" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA58" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AF58" s="1">
         <v>120000</v>
@@ -5138,14 +5087,14 @@
       <c r="R59" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>279</v>
+      <c r="Y59" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA59" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF59" s="1">
         <v>120000</v>
@@ -5158,14 +5107,14 @@
       <c r="R60" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y60" s="11" t="s">
-        <v>279</v>
+      <c r="Y60" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA60" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF60" s="1">
         <v>120000</v>
@@ -5178,14 +5127,14 @@
       <c r="R61" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>279</v>
+      <c r="Y61" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA61" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AF61" s="1">
         <v>120000</v>
@@ -5198,14 +5147,14 @@
       <c r="R62" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y62" s="11" t="s">
-        <v>279</v>
+      <c r="Y62" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA62" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AF62" s="1">
         <v>120000</v>
@@ -5218,14 +5167,14 @@
       <c r="R63" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>279</v>
+      <c r="Y63" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA63" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF63" s="1">
         <v>120000</v>
@@ -5238,14 +5187,14 @@
       <c r="R64" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y64" s="11" t="s">
-        <v>279</v>
+      <c r="Y64" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA64" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF64" s="1">
         <v>120000</v>
@@ -5258,20 +5207,20 @@
       <c r="R65" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>279</v>
+      <c r="Y65" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA65" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AF65" s="1">
         <v>90000</v>
       </c>
       <c r="AP65" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="2:42">
@@ -5281,14 +5230,14 @@
       <c r="R66" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>279</v>
+      <c r="Y66" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA66" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF66" s="1">
         <v>120000</v>
@@ -5301,14 +5250,14 @@
       <c r="R67" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>279</v>
+      <c r="Y67" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA67" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AF67" s="1">
         <v>120000</v>
@@ -5321,14 +5270,14 @@
       <c r="R68" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>279</v>
+      <c r="Y68" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA68" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AF68" s="1">
         <v>120000</v>
@@ -5341,20 +5290,20 @@
       <c r="R69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>279</v>
+      <c r="Y69" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA69" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AF69" s="1">
         <v>100000</v>
       </c>
       <c r="AP69" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="2:42">
@@ -5364,14 +5313,14 @@
       <c r="R70" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>279</v>
+      <c r="Y70" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA70" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AF70" s="1">
         <v>120000</v>
@@ -5384,14 +5333,14 @@
       <c r="R71" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>279</v>
+      <c r="Y71" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA71" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AF71" s="1">
         <v>120000</v>
@@ -5404,14 +5353,14 @@
       <c r="R72" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>279</v>
+      <c r="Y72" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA72" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF72" s="1">
         <v>120000</v>
@@ -5424,14 +5373,14 @@
       <c r="R73" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>279</v>
+      <c r="Y73" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA73" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AF73" s="1">
         <v>120000</v>
@@ -5444,20 +5393,20 @@
       <c r="R74" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y74" s="11" t="s">
-        <v>279</v>
+      <c r="Y74" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA74" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF74" s="1">
         <v>110000</v>
       </c>
       <c r="AP74" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="2:42">
@@ -5467,14 +5416,14 @@
       <c r="R75" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>279</v>
+      <c r="Y75" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA75" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF75" s="1">
         <v>120000</v>
@@ -5487,14 +5436,14 @@
       <c r="R76" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y76" s="11" t="s">
-        <v>279</v>
+      <c r="Y76" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA76" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF76" s="1">
         <v>120000</v>
@@ -5507,14 +5456,14 @@
       <c r="R77" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>279</v>
+      <c r="Y77" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA77" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF77" s="1">
         <v>120000</v>
@@ -5527,14 +5476,14 @@
       <c r="R78" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y78" s="11" t="s">
-        <v>279</v>
+      <c r="Y78" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA78" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF78" s="1">
         <v>120000</v>
@@ -5547,14 +5496,14 @@
       <c r="R79" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>279</v>
+      <c r="Y79" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA79" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AF79" s="1">
         <v>120000</v>
@@ -5567,14 +5516,14 @@
       <c r="R80" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y80" s="11" t="s">
-        <v>279</v>
+      <c r="Y80" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA80" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF80" s="1">
         <v>105000</v>
@@ -5587,20 +5536,20 @@
       <c r="R81" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>279</v>
+      <c r="Y81" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA81" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF81" s="1">
         <v>120000</v>
       </c>
       <c r="AP81" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="2:42">
@@ -5610,14 +5559,14 @@
       <c r="R82" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>279</v>
+      <c r="Y82" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA82" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF82" s="1">
         <v>120000</v>
@@ -5630,14 +5579,14 @@
       <c r="R83" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>279</v>
+      <c r="Y83" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA83" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AF83" s="1">
         <v>120000</v>
@@ -5650,14 +5599,14 @@
       <c r="R84" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>279</v>
+      <c r="Y84" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA84" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AF84" s="1">
         <v>120000</v>
@@ -5670,14 +5619,14 @@
       <c r="R85" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>279</v>
+      <c r="Y85" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA85" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF85" s="1">
         <v>120000</v>
@@ -5690,20 +5639,20 @@
       <c r="R86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>279</v>
+      <c r="Y86" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA86" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AF86" s="1">
         <v>118000</v>
       </c>
       <c r="AP86" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="2:42">
@@ -5713,14 +5662,14 @@
       <c r="R87" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>279</v>
+      <c r="Y87" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA87" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AF87" s="1">
         <v>120000</v>
@@ -5733,14 +5682,14 @@
       <c r="R88" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>279</v>
+      <c r="Y88" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA88" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AF88" s="1">
         <v>120000</v>
@@ -5753,14 +5702,14 @@
       <c r="R89" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y89" s="11" t="s">
-        <v>279</v>
+      <c r="Y89" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA89" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF89" s="1">
         <v>120000</v>
@@ -5773,14 +5722,14 @@
       <c r="R90" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>279</v>
+      <c r="Y90" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA90" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AF90" s="1">
         <v>120000</v>
@@ -5793,20 +5742,20 @@
       <c r="R91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y91" s="11" t="s">
-        <v>279</v>
+      <c r="Y91" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA91" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF91" s="1">
         <v>120000</v>
       </c>
       <c r="AP91" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="2:42">
@@ -5816,14 +5765,14 @@
       <c r="R92" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y92" s="11" t="s">
-        <v>279</v>
+      <c r="Y92" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA92" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF92" s="1">
         <v>100000</v>
@@ -5836,14 +5785,14 @@
       <c r="R93" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y93" s="11" t="s">
-        <v>279</v>
+      <c r="Y93" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA93" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AF93" s="1">
         <v>120000</v>
@@ -5856,14 +5805,14 @@
       <c r="R94" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" s="11" t="s">
-        <v>279</v>
+      <c r="Y94" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA94" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF94" s="1">
         <v>120000</v>
@@ -5876,14 +5825,14 @@
       <c r="R95" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y95" s="11" t="s">
-        <v>279</v>
+      <c r="Y95" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA95" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AF95" s="1">
         <v>120000</v>
@@ -5896,14 +5845,14 @@
       <c r="R96" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y96" s="11" t="s">
-        <v>279</v>
+      <c r="Y96" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA96" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF96" s="1">
         <v>120000</v>
@@ -5916,14 +5865,14 @@
       <c r="R97" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>279</v>
+      <c r="Y97" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA97" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AF97" s="1">
         <v>120000</v>
@@ -5936,14 +5885,14 @@
       <c r="R98" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y98" s="11" t="s">
-        <v>279</v>
+      <c r="Y98" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA98" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AF98" s="1">
         <v>120000</v>
@@ -5956,14 +5905,14 @@
       <c r="R99" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>279</v>
+      <c r="Y99" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA99" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AF99" s="1">
         <v>120000</v>
@@ -5976,14 +5925,14 @@
       <c r="R100" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y100" s="11" t="s">
-        <v>279</v>
+      <c r="Y100" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA100" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AF100" s="1">
         <v>120000</v>
@@ -5996,14 +5945,14 @@
       <c r="R101" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>279</v>
+      <c r="Y101" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA101" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AF101" s="1">
         <v>120000</v>
@@ -6016,14 +5965,14 @@
       <c r="R102" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y102" s="11" t="s">
-        <v>279</v>
+      <c r="Y102" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA102" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AF102" s="1">
         <v>120000</v>
@@ -6036,14 +5985,14 @@
       <c r="R103" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>279</v>
+      <c r="Y103" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA103" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AF103" s="1">
         <v>120000</v>
@@ -6056,14 +6005,14 @@
       <c r="R104" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y104" s="11" t="s">
-        <v>279</v>
+      <c r="Y104" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA104" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AF104" s="1">
         <v>120000</v>
@@ -6076,14 +6025,14 @@
       <c r="R105" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>279</v>
+      <c r="Y105" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA105" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB105" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AF105" s="1">
         <v>120000</v>
@@ -6096,14 +6045,14 @@
       <c r="R106" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y106" s="11" t="s">
-        <v>279</v>
+      <c r="Y106" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA106" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF106" s="1">
         <v>120000</v>
@@ -6116,14 +6065,14 @@
       <c r="R107" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y107" s="11" t="s">
-        <v>279</v>
+      <c r="Y107" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA107" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF107" s="1">
         <v>120000</v>
@@ -6136,14 +6085,14 @@
       <c r="R108" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y108" s="11" t="s">
-        <v>279</v>
+      <c r="Y108" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA108" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AF108" s="1">
         <v>120000</v>
@@ -6156,14 +6105,14 @@
       <c r="R109" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y109" s="11" t="s">
-        <v>279</v>
+      <c r="Y109" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA109" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF109" s="1">
         <v>120000</v>
@@ -6176,14 +6125,14 @@
       <c r="R110" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y110" s="11" t="s">
-        <v>279</v>
+      <c r="Y110" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA110" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF110" s="1">
         <v>120000</v>
@@ -6196,14 +6145,14 @@
       <c r="R111" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y111" s="11" t="s">
-        <v>279</v>
+      <c r="Y111" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA111" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB111" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AF111" s="1">
         <v>120000</v>
@@ -6216,14 +6165,14 @@
       <c r="R112" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y112" s="11" t="s">
-        <v>279</v>
+      <c r="Y112" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA112" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB112" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AF112" s="1">
         <v>120000</v>
@@ -6236,14 +6185,14 @@
       <c r="R113" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y113" s="11" t="s">
-        <v>279</v>
+      <c r="Y113" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA113" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB113" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AF113" s="1">
         <v>120000</v>
@@ -6256,14 +6205,14 @@
       <c r="R114" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y114" s="11" t="s">
-        <v>279</v>
+      <c r="Y114" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA114" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB114" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AF114" s="1">
         <v>120000</v>
@@ -6276,14 +6225,14 @@
       <c r="R115" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y115" s="11" t="s">
-        <v>279</v>
+      <c r="Y115" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA115" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB115" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF115" s="1">
         <v>120000</v>
@@ -6296,14 +6245,14 @@
       <c r="R116" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y116" s="11" t="s">
-        <v>279</v>
+      <c r="Y116" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA116" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB116" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AF116" s="1">
         <v>120000</v>
@@ -6316,14 +6265,14 @@
       <c r="R117" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y117" s="11" t="s">
-        <v>279</v>
+      <c r="Y117" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA117" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB117" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AF117" s="1">
         <v>120000</v>
@@ -6336,14 +6285,14 @@
       <c r="R118" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y118" s="11" t="s">
-        <v>279</v>
+      <c r="Y118" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA118" s="4">
         <v>45179.625</v>
       </c>
       <c r="AB118" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AF118" s="1">
         <v>120000</v>
@@ -6356,14 +6305,14 @@
       <c r="R119" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Y119" s="11" t="s">
-        <v>279</v>
+      <c r="Y119" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="AA119" s="3">
         <v>45179.625</v>
       </c>
       <c r="AB119" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF119" s="1">
         <v>120000</v>
